--- a/MetroGraphe/MetroGraphe/bin/Debug/net8.0/Liens.xlsx
+++ b/MetroGraphe/MetroGraphe/bin/Debug/net8.0/Liens.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\MetroGraphe\MetroGraphe\bin\Debug\net8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\ESILV\GITHUB\Projet_Livin-paris\MetroGraphe\MetroGraphe\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8E445-3E9C-4183-9C9F-FE17C98545E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0517E15A-5A10-4335-885B-A1F185139F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB009235-68D4-44C1-BAC1-2A1E48F66511}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="425">
   <si>
     <t>Station Id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Suivant</t>
   </si>
   <si>
-    <t>Temps de Changement</t>
-  </si>
-  <si>
     <t>Porte Maillot</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>Gambetta</t>
   </si>
   <si>
-    <t>3 bis</t>
-  </si>
-  <si>
     <t>Porte de Bagnolet</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
     <t>Saint-Fargeau</t>
   </si>
   <si>
-    <t xml:space="preserve">3 bis </t>
-  </si>
-  <si>
     <t>Pelleport</t>
   </si>
   <si>
@@ -491,9 +482,6 @@
     <t>Porte d'Ivry</t>
   </si>
   <si>
-    <t>7 bis</t>
-  </si>
-  <si>
     <t>Bolivar</t>
   </si>
   <si>
@@ -800,32 +788,536 @@
     <t>Olympiades</t>
   </si>
   <si>
-    <t>Distance du précédent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	0.57 km</t>
-  </si>
-  <si>
-    <t>0.47 km</t>
-  </si>
-  <si>
-    <t>0.49 km</t>
-  </si>
-  <si>
-    <t>0.74 km</t>
-  </si>
-  <si>
-    <t>0.38 km</t>
-  </si>
-  <si>
     <t>Nom ligne</t>
+  </si>
+  <si>
+    <t>Distance du prochain</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 </t>
+  </si>
+  <si>
+    <t>   1.04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.19  </t>
+  </si>
+  <si>
+    <t>   0.91  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.73 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.55 </t>
+  </si>
+  <si>
+    <t>  0.58  </t>
+  </si>
+  <si>
+    <t>   0.40 </t>
+  </si>
+  <si>
+    <t>  0.53  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.40 </t>
+  </si>
+  <si>
+    <t>   0.32  </t>
+  </si>
+  <si>
+    <t>    0.45  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63 </t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.56  </t>
+  </si>
+  <si>
+    <t>   0.36  </t>
+  </si>
+  <si>
+    <t>    0.68  </t>
+  </si>
+  <si>
+    <t>  0.29  </t>
+  </si>
+  <si>
+    <t>  0.69  </t>
+  </si>
+  <si>
+    <t>   0.67  </t>
+  </si>
+  <si>
+    <t>    0.78  </t>
+  </si>
+  <si>
+    <t>  1.04  </t>
+  </si>
+  <si>
+    <t>    1.04  </t>
+  </si>
+  <si>
+    <t>  1.11  </t>
+  </si>
+  <si>
+    <t>  2.19  </t>
+  </si>
+  <si>
+    <t>    0.88  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.41 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.47 </t>
+  </si>
+  <si>
+    <t>   0.47  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.43 </t>
+  </si>
+  <si>
+    <t>  0.33  </t>
+  </si>
+  <si>
+    <t>    0.40  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.52 </t>
+  </si>
+  <si>
+    <t>    0.48  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58 </t>
+  </si>
+  <si>
+    <t>   0.40  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.39 </t>
+  </si>
+  <si>
+    <t>    0.44  </t>
+  </si>
+  <si>
+    <t>    0.67  </t>
+  </si>
+  <si>
+    <t>    0.47  </t>
+  </si>
+  <si>
+    <t>   0.35  </t>
+  </si>
+  <si>
+    <t>   0.43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.43 </t>
+  </si>
+  <si>
+    <t>    0.31  </t>
+  </si>
+  <si>
+    <t>    0.42  </t>
+  </si>
+  <si>
+    <t>  0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.52 </t>
+  </si>
+  <si>
+    <t>    0.50  </t>
+  </si>
+  <si>
+    <t>   0.50  </t>
+  </si>
+  <si>
+    <t>  0.63  </t>
+  </si>
+  <si>
+    <t>   0.48  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      0.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +1335,19 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="0.59999389629810485"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -940,7 +1445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -956,6 +1461,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,15 +1799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498A124-9FD9-4B19-910D-0AA9BFDBF943}">
-  <dimension ref="A1:G333"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,39 +1821,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="E2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1354,18 +1860,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3">
+        <v>272</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:D19" si="0">C3+1</f>
@@ -1376,21 +1882,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4">
+        <v>337</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f>C4+1</f>
@@ -1401,18 +1904,18 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5">
+        <v>350</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -1423,18 +1926,18 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6">
+        <v>316</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -1445,18 +1948,18 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7">
+        <v>351</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1466,19 +1969,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8">
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -1488,19 +1991,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -1510,19 +2013,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -1532,19 +2035,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <f>C11+1</f>
@@ -1554,19 +2057,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1576,19 +2079,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -1598,19 +2101,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1620,19 +2123,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1642,19 +2145,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1664,19 +2167,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1686,19 +2189,19 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -1708,56 +2211,54 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ref="C20" si="1">C19+1</f>
         <v>18</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="E20" s="2"/>
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -1765,19 +2266,19 @@
       <c r="D22">
         <v>22</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -1785,22 +2286,19 @@
       <c r="D23" s="4">
         <v>23</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
+      <c r="E23" s="15" t="s">
+        <v>366</v>
       </c>
       <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>22</v>
@@ -1808,19 +2306,19 @@
       <c r="D24">
         <v>24</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -1828,19 +2326,19 @@
       <c r="D25">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>24</v>
@@ -1848,19 +2346,19 @@
       <c r="D26">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>25</v>
@@ -1868,19 +2366,19 @@
       <c r="D27">
         <v>27</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>26</v>
@@ -1888,19 +2386,19 @@
       <c r="D28">
         <v>28</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -1908,19 +2406,19 @@
       <c r="D29">
         <v>29</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>28</v>
@@ -1928,19 +2426,19 @@
       <c r="D30">
         <v>30</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="E30" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>29</v>
@@ -1948,19 +2446,19 @@
       <c r="D31">
         <v>31</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -1969,19 +2467,19 @@
         <f>D31+1</f>
         <v>32</v>
       </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="G32">
+      <c r="E32" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <f>C32+1</f>
@@ -1991,19 +2489,19 @@
         <f t="shared" ref="D33:D43" si="2">D32+1</f>
         <v>33</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C43" si="3">C33+1</f>
@@ -2013,19 +2511,19 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
@@ -2035,19 +2533,19 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
@@ -2057,19 +2555,19 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
@@ -2079,19 +2577,19 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
@@ -2101,19 +2599,19 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
@@ -2123,19 +2621,19 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <f t="shared" si="3"/>
@@ -2145,19 +2643,19 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="E40" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <f t="shared" si="3"/>
@@ -2167,19 +2665,19 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="G41">
+      <c r="E41" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <f t="shared" si="3"/>
@@ -2189,19 +2687,19 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+      <c r="E42" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <f t="shared" si="3"/>
@@ -2211,19 +2709,19 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>42</v>
@@ -2231,56 +2729,54 @@
       <c r="D44">
         <v>44</v>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="G44">
+      <c r="E44" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>43</v>
       </c>
-      <c r="D45">
-        <v>45</v>
-      </c>
       <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="2">
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46">
         <v>46</v>
       </c>
-      <c r="G46" s="5">
+      <c r="E46" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="F46" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2">
         <v>45</v>
@@ -2288,16 +2784,19 @@
       <c r="D47">
         <v>47</v>
       </c>
-      <c r="G47">
+      <c r="E47" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2">
         <v>46</v>
@@ -2305,16 +2804,19 @@
       <c r="D48">
         <v>48</v>
       </c>
-      <c r="G48">
+      <c r="E48" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2">
         <v>47</v>
@@ -2322,16 +2824,19 @@
       <c r="D49">
         <v>49</v>
       </c>
-      <c r="G49">
+      <c r="E49" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="2">
         <v>48</v>
@@ -2339,16 +2844,19 @@
       <c r="D50">
         <v>50</v>
       </c>
-      <c r="G50">
+      <c r="E50" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2">
         <v>49</v>
@@ -2356,16 +2864,19 @@
       <c r="D51">
         <v>51</v>
       </c>
-      <c r="G51">
+      <c r="E51" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F51">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2">
         <v>50</v>
@@ -2373,16 +2884,19 @@
       <c r="D52">
         <v>52</v>
       </c>
-      <c r="G52">
+      <c r="E52" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2">
         <v>51</v>
@@ -2390,16 +2904,19 @@
       <c r="D53">
         <v>53</v>
       </c>
-      <c r="G53">
+      <c r="E53" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2">
         <v>52</v>
@@ -2407,16 +2924,19 @@
       <c r="D54">
         <v>54</v>
       </c>
-      <c r="G54">
+      <c r="E54" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2">
         <v>53</v>
@@ -2424,16 +2944,19 @@
       <c r="D55">
         <v>55</v>
       </c>
-      <c r="G55">
+      <c r="E55" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F55">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2">
         <v>54</v>
@@ -2441,16 +2964,19 @@
       <c r="D56">
         <v>56</v>
       </c>
-      <c r="G56">
+      <c r="E56" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="F56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2">
         <v>55</v>
@@ -2458,16 +2984,19 @@
       <c r="D57">
         <v>57</v>
       </c>
-      <c r="G57">
+      <c r="E57" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2">
         <v>56</v>
@@ -2475,16 +3004,19 @@
       <c r="D58">
         <v>58</v>
       </c>
-      <c r="G58">
+      <c r="E58" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F58">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2">
         <v>57</v>
@@ -2492,16 +3024,19 @@
       <c r="D59">
         <v>59</v>
       </c>
-      <c r="G59">
+      <c r="E59" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2">
         <v>58</v>
@@ -2509,16 +3044,19 @@
       <c r="D60">
         <v>60</v>
       </c>
-      <c r="G60">
+      <c r="E60" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2">
         <v>59</v>
@@ -2526,16 +3064,19 @@
       <c r="D61">
         <v>61</v>
       </c>
-      <c r="G61">
+      <c r="E61" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2">
         <v>60</v>
@@ -2543,16 +3084,19 @@
       <c r="D62">
         <v>62</v>
       </c>
-      <c r="G62">
+      <c r="E62" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2">
         <v>61</v>
@@ -2560,16 +3104,19 @@
       <c r="D63">
         <v>63</v>
       </c>
-      <c r="G63">
+      <c r="E63" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2">
         <v>62</v>
@@ -2577,16 +3124,19 @@
       <c r="D64">
         <v>64</v>
       </c>
-      <c r="G64">
+      <c r="E64" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2">
         <v>63</v>
@@ -2594,16 +3144,19 @@
       <c r="D65">
         <v>65</v>
       </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" s="2">
         <v>64</v>
@@ -2611,33 +3164,37 @@
       <c r="D66">
         <v>66</v>
       </c>
-      <c r="G66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E66" s="15">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="2">
         <v>65</v>
       </c>
+      <c r="C67" s="2"/>
       <c r="D67">
         <v>67</v>
       </c>
-      <c r="G67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E67" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2">
         <v>66</v>
@@ -2645,16 +3202,19 @@
       <c r="D68">
         <v>68</v>
       </c>
-      <c r="G68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2">
         <v>67</v>
@@ -2662,50 +3222,54 @@
       <c r="D69">
         <v>69</v>
       </c>
-      <c r="G69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2">
         <v>68</v>
       </c>
-      <c r="D70">
-        <v>70</v>
-      </c>
-      <c r="G70" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="15">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="2">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71">
         <v>71</v>
       </c>
-      <c r="G71">
+      <c r="E71" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2">
         <v>70</v>
@@ -2713,16 +3277,19 @@
       <c r="D72">
         <v>72</v>
       </c>
-      <c r="G72">
+      <c r="E72" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2">
         <v>71</v>
@@ -2730,16 +3297,19 @@
       <c r="D73">
         <v>73</v>
       </c>
-      <c r="G73">
+      <c r="E73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2">
         <v>72</v>
@@ -2747,16 +3317,19 @@
       <c r="D74">
         <v>74</v>
       </c>
-      <c r="G74">
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2">
         <v>73</v>
@@ -2764,16 +3337,19 @@
       <c r="D75">
         <v>75</v>
       </c>
-      <c r="G75">
+      <c r="E75" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2">
         <v>74</v>
@@ -2781,16 +3357,19 @@
       <c r="D76">
         <v>76</v>
       </c>
-      <c r="G76">
+      <c r="E76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2">
         <v>75</v>
@@ -2798,16 +3377,19 @@
       <c r="D77">
         <v>77</v>
       </c>
-      <c r="G77">
+      <c r="E77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2">
         <v>76</v>
@@ -2815,16 +3397,19 @@
       <c r="D78">
         <v>78</v>
       </c>
-      <c r="G78">
+      <c r="E78" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2">
         <v>77</v>
@@ -2832,16 +3417,19 @@
       <c r="D79">
         <v>79</v>
       </c>
-      <c r="G79">
+      <c r="E79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2">
         <v>78</v>
@@ -2849,16 +3437,19 @@
       <c r="D80">
         <v>80</v>
       </c>
-      <c r="G80">
+      <c r="E80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2">
         <v>79</v>
@@ -2866,16 +3457,19 @@
       <c r="D81">
         <v>81</v>
       </c>
-      <c r="G81">
+      <c r="E81" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C82" s="2">
         <v>80</v>
@@ -2883,16 +3477,19 @@
       <c r="D82">
         <v>82</v>
       </c>
-      <c r="G82">
+      <c r="E82" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2">
         <v>81</v>
@@ -2900,16 +3497,19 @@
       <c r="D83">
         <v>83</v>
       </c>
-      <c r="G83">
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2">
         <v>82</v>
@@ -2917,16 +3517,19 @@
       <c r="D84">
         <v>84</v>
       </c>
-      <c r="G84">
+      <c r="E84" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2">
         <v>83</v>
@@ -2934,16 +3537,19 @@
       <c r="D85">
         <v>85</v>
       </c>
-      <c r="G85">
+      <c r="E85" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2">
         <v>84</v>
@@ -2951,16 +3557,19 @@
       <c r="D86">
         <v>86</v>
       </c>
-      <c r="G86">
+      <c r="E86" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2">
         <v>85</v>
@@ -2968,16 +3577,19 @@
       <c r="D87">
         <v>87</v>
       </c>
-      <c r="G87">
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2">
         <v>86</v>
@@ -2985,16 +3597,19 @@
       <c r="D88">
         <v>88</v>
       </c>
-      <c r="G88">
+      <c r="E88" t="s">
+        <v>255</v>
+      </c>
+      <c r="F88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2">
         <v>87</v>
@@ -3002,16 +3617,19 @@
       <c r="D89">
         <v>89</v>
       </c>
-      <c r="G89">
+      <c r="E89" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2">
         <v>88</v>
@@ -3019,16 +3637,19 @@
       <c r="D90">
         <v>90</v>
       </c>
-      <c r="G90">
+      <c r="E90" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2">
         <v>89</v>
@@ -3036,16 +3657,19 @@
       <c r="D91">
         <v>91</v>
       </c>
-      <c r="G91">
+      <c r="E91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2">
         <v>90</v>
@@ -3053,16 +3677,19 @@
       <c r="D92">
         <v>92</v>
       </c>
-      <c r="G92">
+      <c r="E92" t="s">
+        <v>258</v>
+      </c>
+      <c r="F92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2">
         <v>91</v>
@@ -3070,16 +3697,19 @@
       <c r="D93">
         <v>93</v>
       </c>
-      <c r="G93">
+      <c r="E93" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2">
         <v>92</v>
@@ -3087,16 +3717,19 @@
       <c r="D94">
         <v>94</v>
       </c>
-      <c r="G94">
+      <c r="E94" t="s">
+        <v>260</v>
+      </c>
+      <c r="F94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C95" s="2">
         <v>93</v>
@@ -3104,50 +3737,54 @@
       <c r="D95">
         <v>95</v>
       </c>
-      <c r="G95">
+      <c r="E95" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2">
         <v>94</v>
       </c>
-      <c r="D96">
-        <v>96</v>
-      </c>
-      <c r="G96">
+      <c r="E96" t="s">
+        <v>269</v>
+      </c>
+      <c r="F96">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
-      </c>
-      <c r="C97" s="2">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C97" s="2"/>
       <c r="D97">
         <v>97</v>
       </c>
-      <c r="G97" s="6">
+      <c r="E97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2">
         <v>96</v>
@@ -3155,16 +3792,19 @@
       <c r="D98">
         <v>98</v>
       </c>
-      <c r="G98">
+      <c r="E98" t="s">
+        <v>271</v>
+      </c>
+      <c r="F98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2">
         <v>97</v>
@@ -3172,16 +3812,19 @@
       <c r="D99">
         <v>99</v>
       </c>
-      <c r="G99">
+      <c r="E99" t="s">
+        <v>272</v>
+      </c>
+      <c r="F99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2">
         <v>98</v>
@@ -3189,16 +3832,19 @@
       <c r="D100">
         <v>100</v>
       </c>
-      <c r="G100">
+      <c r="E100" t="s">
+        <v>273</v>
+      </c>
+      <c r="F100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2">
         <v>99</v>
@@ -3206,16 +3852,19 @@
       <c r="D101">
         <v>101</v>
       </c>
-      <c r="G101">
+      <c r="E101" t="s">
+        <v>274</v>
+      </c>
+      <c r="F101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C102" s="2">
         <v>100</v>
@@ -3223,16 +3872,19 @@
       <c r="D102">
         <v>102</v>
       </c>
-      <c r="G102">
+      <c r="E102" t="s">
+        <v>275</v>
+      </c>
+      <c r="F102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C103" s="2">
         <v>101</v>
@@ -3240,16 +3892,19 @@
       <c r="D103">
         <v>103</v>
       </c>
-      <c r="G103">
+      <c r="E103" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2">
         <v>102</v>
@@ -3257,16 +3912,19 @@
       <c r="D104">
         <v>104</v>
       </c>
-      <c r="G104">
+      <c r="E104" t="s">
+        <v>277</v>
+      </c>
+      <c r="F104">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C105" s="2">
         <v>103</v>
@@ -3274,16 +3932,19 @@
       <c r="D105">
         <v>105</v>
       </c>
-      <c r="G105">
+      <c r="E105" t="s">
+        <v>278</v>
+      </c>
+      <c r="F105">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C106" s="2">
         <v>104</v>
@@ -3291,16 +3952,19 @@
       <c r="D106">
         <v>106</v>
       </c>
-      <c r="G106">
+      <c r="E106" t="s">
+        <v>279</v>
+      </c>
+      <c r="F106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C107" s="2">
         <v>105</v>
@@ -3308,16 +3972,19 @@
       <c r="D107">
         <v>107</v>
       </c>
-      <c r="G107">
+      <c r="E107" t="s">
+        <v>276</v>
+      </c>
+      <c r="F107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2">
         <v>106</v>
@@ -3325,16 +3992,19 @@
       <c r="D108">
         <v>108</v>
       </c>
-      <c r="G108">
+      <c r="E108" t="s">
+        <v>256</v>
+      </c>
+      <c r="F108">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109" s="2">
         <v>107</v>
@@ -3342,16 +4012,19 @@
       <c r="D109">
         <v>109</v>
       </c>
-      <c r="G109">
+      <c r="E109" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2">
         <v>108</v>
@@ -3359,16 +4032,19 @@
       <c r="D110">
         <v>110</v>
       </c>
-      <c r="G110">
+      <c r="E110" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2">
         <v>109</v>
@@ -3376,16 +4052,19 @@
       <c r="D111">
         <v>111</v>
       </c>
-      <c r="G111">
+      <c r="E111" t="s">
+        <v>282</v>
+      </c>
+      <c r="F111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2">
         <v>110</v>
@@ -3393,16 +4072,19 @@
       <c r="D112">
         <v>112</v>
       </c>
-      <c r="G112">
+      <c r="E112" t="s">
+        <v>283</v>
+      </c>
+      <c r="F112">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2">
         <v>111</v>
@@ -3410,50 +4092,54 @@
       <c r="D113">
         <v>113</v>
       </c>
-      <c r="G113">
+      <c r="E113" t="s">
+        <v>270</v>
+      </c>
+      <c r="F113">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C114" s="2">
         <v>112</v>
       </c>
-      <c r="D114">
-        <v>114</v>
-      </c>
-      <c r="G114">
+      <c r="E114" t="s">
+        <v>269</v>
+      </c>
+      <c r="F114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="2">
-        <v>113</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C115" s="2"/>
       <c r="D115">
         <v>115</v>
       </c>
-      <c r="G115" s="7">
+      <c r="E115" t="s">
+        <v>284</v>
+      </c>
+      <c r="F115" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C116" s="2">
         <v>114</v>
@@ -3461,16 +4147,19 @@
       <c r="D116">
         <v>116</v>
       </c>
-      <c r="G116">
+      <c r="E116" t="s">
+        <v>285</v>
+      </c>
+      <c r="F116">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C117" s="2">
         <v>115</v>
@@ -3478,16 +4167,19 @@
       <c r="D117">
         <v>117</v>
       </c>
-      <c r="G117">
+      <c r="E117" t="s">
+        <v>279</v>
+      </c>
+      <c r="F117">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C118" s="2">
         <v>116</v>
@@ -3495,16 +4187,19 @@
       <c r="D118">
         <v>118</v>
       </c>
-      <c r="G118">
+      <c r="E118" t="s">
+        <v>286</v>
+      </c>
+      <c r="F118">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C119" s="2">
         <v>117</v>
@@ -3512,16 +4207,19 @@
       <c r="D119">
         <v>119</v>
       </c>
-      <c r="G119">
+      <c r="E119" t="s">
+        <v>255</v>
+      </c>
+      <c r="F119">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2">
         <v>118</v>
@@ -3529,16 +4227,19 @@
       <c r="D120">
         <v>120</v>
       </c>
-      <c r="G120">
+      <c r="E120" t="s">
+        <v>278</v>
+      </c>
+      <c r="F120">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C121" s="2">
         <v>119</v>
@@ -3546,16 +4247,19 @@
       <c r="D121">
         <v>121</v>
       </c>
-      <c r="G121">
+      <c r="E121" t="s">
+        <v>285</v>
+      </c>
+      <c r="F121">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2">
         <v>120</v>
@@ -3563,16 +4267,19 @@
       <c r="D122">
         <v>122</v>
       </c>
-      <c r="G122">
+      <c r="E122" t="s">
+        <v>287</v>
+      </c>
+      <c r="F122">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2">
         <v>121</v>
@@ -3580,16 +4287,19 @@
       <c r="D123">
         <v>123</v>
       </c>
-      <c r="G123">
+      <c r="E123" t="s">
+        <v>278</v>
+      </c>
+      <c r="F123">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2">
         <v>122</v>
@@ -3597,16 +4307,19 @@
       <c r="D124">
         <v>124</v>
       </c>
-      <c r="G124">
+      <c r="E124" t="s">
+        <v>268</v>
+      </c>
+      <c r="F124">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C125" s="2">
         <v>123</v>
@@ -3614,16 +4327,19 @@
       <c r="D125">
         <v>125</v>
       </c>
-      <c r="G125">
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+      <c r="F125">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2">
         <v>124</v>
@@ -3631,16 +4347,19 @@
       <c r="D126">
         <v>126</v>
       </c>
-      <c r="G126">
+      <c r="E126" t="s">
+        <v>262</v>
+      </c>
+      <c r="F126">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2">
         <v>125</v>
@@ -3648,16 +4367,19 @@
       <c r="D127">
         <v>127</v>
       </c>
-      <c r="G127">
+      <c r="E127" t="s">
+        <v>288</v>
+      </c>
+      <c r="F127">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C128" s="2">
         <v>126</v>
@@ -3665,16 +4387,19 @@
       <c r="D128">
         <v>128</v>
       </c>
-      <c r="G128">
+      <c r="E128" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2">
         <v>127</v>
@@ -3682,16 +4407,19 @@
       <c r="D129">
         <v>129</v>
       </c>
-      <c r="G129">
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
+      <c r="F129">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C130" s="2">
         <v>128</v>
@@ -3699,16 +4427,19 @@
       <c r="D130">
         <v>130</v>
       </c>
-      <c r="G130">
+      <c r="E130" t="s">
+        <v>285</v>
+      </c>
+      <c r="F130">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2">
         <v>129</v>
@@ -3716,16 +4447,19 @@
       <c r="D131">
         <v>131</v>
       </c>
-      <c r="G131">
+      <c r="E131" t="s">
+        <v>280</v>
+      </c>
+      <c r="F131">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C132" s="2">
         <v>130</v>
@@ -3733,16 +4467,19 @@
       <c r="D132">
         <v>132</v>
       </c>
-      <c r="G132">
+      <c r="E132" t="s">
+        <v>278</v>
+      </c>
+      <c r="F132">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2">
         <v>131</v>
@@ -3750,16 +4487,19 @@
       <c r="D133">
         <v>133</v>
       </c>
-      <c r="G133">
+      <c r="E133" t="s">
+        <v>289</v>
+      </c>
+      <c r="F133">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C134" s="2">
         <v>132</v>
@@ -3767,16 +4507,19 @@
       <c r="D134">
         <v>134</v>
       </c>
-      <c r="G134">
+      <c r="E134" t="s">
+        <v>290</v>
+      </c>
+      <c r="F134">
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C135" s="2">
         <v>133</v>
@@ -3784,16 +4527,19 @@
       <c r="D135">
         <v>135</v>
       </c>
-      <c r="G135">
+      <c r="E135" t="s">
+        <v>267</v>
+      </c>
+      <c r="F135">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2">
         <v>134</v>
@@ -3801,16 +4547,19 @@
       <c r="D136">
         <v>136</v>
       </c>
-      <c r="G136">
+      <c r="E136" t="s">
+        <v>291</v>
+      </c>
+      <c r="F136">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2">
         <v>135</v>
@@ -3818,16 +4567,19 @@
       <c r="D137">
         <v>137</v>
       </c>
-      <c r="G137">
+      <c r="E137" t="s">
+        <v>292</v>
+      </c>
+      <c r="F137">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C138" s="2">
         <v>136</v>
@@ -3835,16 +4587,19 @@
       <c r="D138">
         <v>138</v>
       </c>
-      <c r="G138">
+      <c r="E138" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C139" s="2">
         <v>137</v>
@@ -3852,16 +4607,19 @@
       <c r="D139">
         <v>139</v>
       </c>
-      <c r="G139">
+      <c r="E139" t="s">
+        <v>277</v>
+      </c>
+      <c r="F139">
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C140" s="2">
         <v>138</v>
@@ -3869,16 +4627,19 @@
       <c r="D140">
         <v>140</v>
       </c>
-      <c r="G140">
+      <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2">
         <v>139</v>
@@ -3886,50 +4647,54 @@
       <c r="D141">
         <v>141</v>
       </c>
-      <c r="G141">
+      <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141">
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142" s="2">
         <v>140</v>
       </c>
-      <c r="D142">
-        <v>142</v>
-      </c>
-      <c r="G142">
+      <c r="E142" t="s">
+        <v>269</v>
+      </c>
+      <c r="F142">
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
-      </c>
-      <c r="C143" s="2">
-        <v>141</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C143" s="2"/>
       <c r="D143">
         <v>143</v>
       </c>
-      <c r="G143" s="8">
+      <c r="E143" t="s">
+        <v>271</v>
+      </c>
+      <c r="F143" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C144" s="2">
         <v>142</v>
@@ -3937,16 +4702,19 @@
       <c r="D144">
         <v>144</v>
       </c>
-      <c r="G144">
+      <c r="E144" t="s">
+        <v>287</v>
+      </c>
+      <c r="F144">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C145" s="2">
         <v>143</v>
@@ -3954,16 +4722,19 @@
       <c r="D145">
         <v>145</v>
       </c>
-      <c r="G145">
+      <c r="E145" t="s">
+        <v>267</v>
+      </c>
+      <c r="F145">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C146" s="2">
         <v>144</v>
@@ -3971,16 +4742,19 @@
       <c r="D146">
         <v>146</v>
       </c>
-      <c r="G146">
+      <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" s="2">
         <v>145</v>
@@ -3988,16 +4762,19 @@
       <c r="D147">
         <v>147</v>
       </c>
-      <c r="G147">
+      <c r="E147" t="s">
+        <v>267</v>
+      </c>
+      <c r="F147">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C148" s="2">
         <v>146</v>
@@ -4005,16 +4782,19 @@
       <c r="D148">
         <v>148</v>
       </c>
-      <c r="G148">
+      <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C149" s="2">
         <v>147</v>
@@ -4022,16 +4802,19 @@
       <c r="D149">
         <v>149</v>
       </c>
-      <c r="G149">
+      <c r="E149" t="s">
+        <v>256</v>
+      </c>
+      <c r="F149">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2">
         <v>148</v>
@@ -4039,16 +4822,19 @@
       <c r="D150">
         <v>150</v>
       </c>
-      <c r="G150">
+      <c r="E150" t="s">
+        <v>254</v>
+      </c>
+      <c r="F150">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C151" s="2">
         <v>149</v>
@@ -4056,16 +4842,19 @@
       <c r="D151">
         <v>151</v>
       </c>
-      <c r="G151">
+      <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C152" s="2">
         <v>150</v>
@@ -4073,16 +4862,19 @@
       <c r="D152">
         <v>152</v>
       </c>
-      <c r="G152">
+      <c r="E152" t="s">
+        <v>258</v>
+      </c>
+      <c r="F152">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C153" s="2">
         <v>151</v>
@@ -4090,16 +4882,19 @@
       <c r="D153">
         <v>153</v>
       </c>
-      <c r="G153">
+      <c r="E153" t="s">
+        <v>264</v>
+      </c>
+      <c r="F153">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C154" s="2">
         <v>152</v>
@@ -4107,16 +4902,19 @@
       <c r="D154">
         <v>154</v>
       </c>
-      <c r="G154">
+      <c r="E154" t="s">
+        <v>259</v>
+      </c>
+      <c r="F154">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2">
         <v>153</v>
@@ -4124,16 +4922,19 @@
       <c r="D155">
         <v>155</v>
       </c>
-      <c r="G155">
+      <c r="E155" t="s">
+        <v>295</v>
+      </c>
+      <c r="F155">
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C156" s="2">
         <v>154</v>
@@ -4141,16 +4942,19 @@
       <c r="D156">
         <v>156</v>
       </c>
-      <c r="G156">
+      <c r="E156" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156">
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="2">
         <v>155</v>
@@ -4158,16 +4962,19 @@
       <c r="D157">
         <v>157</v>
       </c>
-      <c r="G157">
+      <c r="E157" t="s">
+        <v>258</v>
+      </c>
+      <c r="F157">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C158" s="2">
         <v>156</v>
@@ -4175,16 +4982,19 @@
       <c r="D158">
         <v>158</v>
       </c>
-      <c r="G158">
+      <c r="E158" t="s">
+        <v>268</v>
+      </c>
+      <c r="F158">
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C159" s="2">
         <v>157</v>
@@ -4192,16 +5002,19 @@
       <c r="D159">
         <v>159</v>
       </c>
-      <c r="G159">
+      <c r="E159" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C160" s="2">
         <v>158</v>
@@ -4209,16 +5022,19 @@
       <c r="D160">
         <v>160</v>
       </c>
-      <c r="G160">
+      <c r="E160" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160">
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C161" s="2">
         <v>159</v>
@@ -4226,16 +5042,19 @@
       <c r="D161">
         <v>161</v>
       </c>
-      <c r="G161">
+      <c r="E161" t="s">
+        <v>293</v>
+      </c>
+      <c r="F161">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C162" s="2">
         <v>160</v>
@@ -4243,16 +5062,19 @@
       <c r="D162">
         <v>162</v>
       </c>
-      <c r="G162">
+      <c r="E162" t="s">
+        <v>294</v>
+      </c>
+      <c r="F162">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C163" s="2">
         <v>161</v>
@@ -4260,16 +5082,19 @@
       <c r="D163">
         <v>163</v>
       </c>
-      <c r="G163">
+      <c r="E163" t="s">
+        <v>284</v>
+      </c>
+      <c r="F163">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C164" s="2">
         <v>162</v>
@@ -4277,16 +5102,19 @@
       <c r="D164">
         <v>164</v>
       </c>
-      <c r="G164">
+      <c r="E164" t="s">
+        <v>271</v>
+      </c>
+      <c r="F164">
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C165" s="2">
         <v>163</v>
@@ -4294,16 +5122,19 @@
       <c r="D165">
         <v>165</v>
       </c>
-      <c r="G165">
+      <c r="E165" t="s">
+        <v>285</v>
+      </c>
+      <c r="F165">
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C166" s="2">
         <v>164</v>
@@ -4311,16 +5142,19 @@
       <c r="D166">
         <v>166</v>
       </c>
-      <c r="G166">
+      <c r="E166" t="s">
+        <v>265</v>
+      </c>
+      <c r="F166">
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C167" s="2">
         <v>165</v>
@@ -4328,16 +5162,19 @@
       <c r="D167">
         <v>167</v>
       </c>
-      <c r="G167">
+      <c r="E167" t="s">
+        <v>270</v>
+      </c>
+      <c r="F167">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C168" s="2">
         <v>166</v>
@@ -4345,16 +5182,19 @@
       <c r="D168">
         <v>168</v>
       </c>
-      <c r="G168">
+      <c r="E168" t="s">
+        <v>258</v>
+      </c>
+      <c r="F168">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C169" s="2">
         <v>167</v>
@@ -4362,16 +5202,19 @@
       <c r="D169">
         <v>169</v>
       </c>
-      <c r="G169">
+      <c r="E169" t="s">
+        <v>296</v>
+      </c>
+      <c r="F169">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C170" s="2">
         <v>168</v>
@@ -4379,16 +5222,19 @@
       <c r="D170">
         <v>170</v>
       </c>
-      <c r="G170">
+      <c r="E170" t="s">
+        <v>268</v>
+      </c>
+      <c r="F170">
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C171" s="2">
         <v>169</v>
@@ -4396,50 +5242,51 @@
       <c r="D171">
         <v>171</v>
       </c>
-      <c r="G171">
+      <c r="E171" t="s">
+        <v>297</v>
+      </c>
+      <c r="F171">
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C172" s="2">
         <v>170</v>
       </c>
-      <c r="D172">
-        <v>172</v>
-      </c>
-      <c r="G172">
+      <c r="F172">
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
-      </c>
-      <c r="C173" s="2">
-        <v>171</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C173" s="2"/>
       <c r="D173">
         <v>173</v>
       </c>
-      <c r="G173" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>275</v>
+      </c>
+      <c r="F173">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C174" s="2">
         <v>172</v>
@@ -4447,16 +5294,19 @@
       <c r="D174">
         <v>174</v>
       </c>
-      <c r="G174" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>298</v>
+      </c>
+      <c r="F174">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C175" s="2">
         <v>173</v>
@@ -4464,16 +5314,19 @@
       <c r="D175">
         <v>175</v>
       </c>
-      <c r="G175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>256</v>
+      </c>
+      <c r="F175">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C176" s="2">
         <v>174</v>
@@ -4481,16 +5334,19 @@
       <c r="D176">
         <v>176</v>
       </c>
-      <c r="G176" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>278</v>
+      </c>
+      <c r="F176">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C177" s="2">
         <v>175</v>
@@ -4498,16 +5354,19 @@
       <c r="D177">
         <v>177</v>
       </c>
-      <c r="G177" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>285</v>
+      </c>
+      <c r="F177">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C178" s="2">
         <v>176</v>
@@ -4515,16 +5374,19 @@
       <c r="D178">
         <v>178</v>
       </c>
-      <c r="G178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>299</v>
+      </c>
+      <c r="F178">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C179" s="2">
         <v>177</v>
@@ -4532,16 +5394,19 @@
       <c r="D179">
         <v>179</v>
       </c>
-      <c r="G179" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>255</v>
+      </c>
+      <c r="F179">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C180" s="2">
         <v>178</v>
@@ -4549,50 +5414,51 @@
       <c r="D180">
         <v>180</v>
       </c>
-      <c r="G180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>276</v>
+      </c>
+      <c r="F180">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C181" s="2">
         <v>179</v>
       </c>
-      <c r="D181">
-        <v>181</v>
-      </c>
-      <c r="G181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>158</v>
-      </c>
-      <c r="C182" s="2">
-        <v>180</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C182" s="2"/>
       <c r="D182">
         <v>182</v>
       </c>
-      <c r="G182" s="9">
+      <c r="E182" t="s">
+        <v>304</v>
+      </c>
+      <c r="F182" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C183" s="2">
         <v>181</v>
@@ -4600,16 +5466,19 @@
       <c r="D183">
         <v>183</v>
       </c>
-      <c r="G183">
+      <c r="E183" t="s">
+        <v>303</v>
+      </c>
+      <c r="F183">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C184" s="2">
         <v>182</v>
@@ -4617,16 +5486,19 @@
       <c r="D184">
         <v>184</v>
       </c>
-      <c r="G184">
+      <c r="E184" t="s">
+        <v>301</v>
+      </c>
+      <c r="F184">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C185" s="2">
         <v>183</v>
@@ -4634,16 +5506,19 @@
       <c r="D185">
         <v>185</v>
       </c>
-      <c r="G185">
+      <c r="E185" t="s">
+        <v>302</v>
+      </c>
+      <c r="F185">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C186" s="2">
         <v>184</v>
@@ -4651,16 +5526,19 @@
       <c r="D186">
         <v>186</v>
       </c>
-      <c r="G186">
+      <c r="E186" t="s">
+        <v>301</v>
+      </c>
+      <c r="F186">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C187" s="2">
         <v>185</v>
@@ -4668,16 +5546,19 @@
       <c r="D187">
         <v>187</v>
       </c>
-      <c r="G187">
+      <c r="E187" t="s">
+        <v>305</v>
+      </c>
+      <c r="F187">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C188" s="2">
         <v>186</v>
@@ -4685,16 +5566,19 @@
       <c r="D188">
         <v>188</v>
       </c>
-      <c r="G188">
+      <c r="E188" t="s">
+        <v>312</v>
+      </c>
+      <c r="F188">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C189" s="2">
         <v>187</v>
@@ -4702,16 +5586,19 @@
       <c r="D189">
         <v>189</v>
       </c>
-      <c r="G189">
+      <c r="E189" t="s">
+        <v>313</v>
+      </c>
+      <c r="F189">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C190" s="2">
         <v>188</v>
@@ -4719,16 +5606,19 @@
       <c r="D190">
         <v>190</v>
       </c>
-      <c r="G190">
+      <c r="E190" t="s">
+        <v>314</v>
+      </c>
+      <c r="F190">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C191" s="2">
         <v>189</v>
@@ -4736,16 +5626,19 @@
       <c r="D191">
         <v>191</v>
       </c>
-      <c r="G191">
+      <c r="E191" t="s">
+        <v>315</v>
+      </c>
+      <c r="F191">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C192" s="2">
         <v>190</v>
@@ -4753,16 +5646,19 @@
       <c r="D192">
         <v>192</v>
       </c>
-      <c r="G192">
+      <c r="E192" t="s">
+        <v>316</v>
+      </c>
+      <c r="F192">
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C193" s="2">
         <v>191</v>
@@ -4770,16 +5666,19 @@
       <c r="D193">
         <v>193</v>
       </c>
-      <c r="G193">
+      <c r="E193" t="s">
+        <v>317</v>
+      </c>
+      <c r="F193">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C194" s="2">
         <v>192</v>
@@ -4787,16 +5686,19 @@
       <c r="D194">
         <v>194</v>
       </c>
-      <c r="G194">
+      <c r="E194" t="s">
+        <v>303</v>
+      </c>
+      <c r="F194">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C195" s="2">
         <v>193</v>
@@ -4804,16 +5706,19 @@
       <c r="D195">
         <v>195</v>
       </c>
-      <c r="G195">
+      <c r="E195" t="s">
+        <v>318</v>
+      </c>
+      <c r="F195">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C196" s="2">
         <v>194</v>
@@ -4821,16 +5726,19 @@
       <c r="D196">
         <v>196</v>
       </c>
-      <c r="G196">
+      <c r="E196" t="s">
+        <v>319</v>
+      </c>
+      <c r="F196">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C197" s="2">
         <v>195</v>
@@ -4838,16 +5746,19 @@
       <c r="D197">
         <v>197</v>
       </c>
-      <c r="G197">
+      <c r="E197" t="s">
+        <v>320</v>
+      </c>
+      <c r="F197">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C198" s="2">
         <v>196</v>
@@ -4855,16 +5766,19 @@
       <c r="D198">
         <v>198</v>
       </c>
-      <c r="G198">
+      <c r="E198" t="s">
+        <v>321</v>
+      </c>
+      <c r="F198">
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C199" s="2">
         <v>197</v>
@@ -4872,16 +5786,19 @@
       <c r="D199">
         <v>199</v>
       </c>
-      <c r="G199">
+      <c r="E199" t="s">
+        <v>322</v>
+      </c>
+      <c r="F199">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C200" s="2">
         <v>198</v>
@@ -4889,16 +5806,19 @@
       <c r="D200">
         <v>200</v>
       </c>
-      <c r="G200">
+      <c r="E200" t="s">
+        <v>323</v>
+      </c>
+      <c r="F200">
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C201" s="2">
         <v>199</v>
@@ -4906,16 +5826,19 @@
       <c r="D201">
         <v>201</v>
       </c>
-      <c r="G201">
+      <c r="E201" t="s">
+        <v>324</v>
+      </c>
+      <c r="F201">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C202" s="2">
         <v>200</v>
@@ -4923,16 +5846,19 @@
       <c r="D202">
         <v>202</v>
       </c>
-      <c r="G202">
+      <c r="E202" t="s">
+        <v>325</v>
+      </c>
+      <c r="F202">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C203" s="2">
         <v>201</v>
@@ -4940,16 +5866,19 @@
       <c r="D203">
         <v>203</v>
       </c>
-      <c r="G203">
+      <c r="E203" t="s">
+        <v>326</v>
+      </c>
+      <c r="F203">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C204" s="2">
         <v>202</v>
@@ -4957,16 +5886,19 @@
       <c r="D204">
         <v>204</v>
       </c>
-      <c r="G204">
+      <c r="E204" t="s">
+        <v>327</v>
+      </c>
+      <c r="F204">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C205" s="2">
         <v>203</v>
@@ -4974,16 +5906,19 @@
       <c r="D205">
         <v>205</v>
       </c>
-      <c r="G205">
+      <c r="E205" t="s">
+        <v>328</v>
+      </c>
+      <c r="F205">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2">
         <v>204</v>
@@ -4991,16 +5926,19 @@
       <c r="D206">
         <v>206</v>
       </c>
-      <c r="G206">
+      <c r="E206" t="s">
+        <v>329</v>
+      </c>
+      <c r="F206">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C207" s="2">
         <v>205</v>
@@ -5008,16 +5946,19 @@
       <c r="D207">
         <v>207</v>
       </c>
-      <c r="G207">
+      <c r="E207" t="s">
+        <v>330</v>
+      </c>
+      <c r="F207">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C208" s="2">
         <v>206</v>
@@ -5025,16 +5966,19 @@
       <c r="D208">
         <v>208</v>
       </c>
-      <c r="G208">
+      <c r="E208" t="s">
+        <v>331</v>
+      </c>
+      <c r="F208">
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C209" s="2">
         <v>207</v>
@@ -5042,50 +5986,54 @@
       <c r="D209">
         <v>209</v>
       </c>
-      <c r="G209">
+      <c r="E209" t="s">
+        <v>332</v>
+      </c>
+      <c r="F209">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C210" s="2">
         <v>208</v>
       </c>
-      <c r="D210">
-        <v>210</v>
-      </c>
-      <c r="G210">
+      <c r="E210" t="s">
+        <v>300</v>
+      </c>
+      <c r="F210">
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>179</v>
-      </c>
-      <c r="C211" s="2">
-        <v>209</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C211" s="2"/>
       <c r="D211">
         <v>211</v>
       </c>
-      <c r="G211" s="10">
+      <c r="E211" t="s">
+        <v>333</v>
+      </c>
+      <c r="F211" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C212" s="2">
         <v>210</v>
@@ -5093,16 +6041,19 @@
       <c r="D212">
         <v>212</v>
       </c>
-      <c r="G212">
+      <c r="E212" t="s">
+        <v>319</v>
+      </c>
+      <c r="F212">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C213" s="2">
         <v>211</v>
@@ -5110,33 +6061,36 @@
       <c r="D213">
         <v>213</v>
       </c>
-      <c r="G213">
+      <c r="E213" t="s">
+        <v>334</v>
+      </c>
+      <c r="F213">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>182</v>
-      </c>
       <c r="C214" s="2">
         <v>212</v>
       </c>
       <c r="D214">
         <v>214</v>
       </c>
-      <c r="G214">
+      <c r="E214" t="s">
+        <v>303</v>
+      </c>
+      <c r="F214">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C215" s="2">
         <v>213</v>
@@ -5144,16 +6098,19 @@
       <c r="D215">
         <v>215</v>
       </c>
-      <c r="G215">
+      <c r="E215" t="s">
+        <v>334</v>
+      </c>
+      <c r="F215">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C216" s="2">
         <v>214</v>
@@ -5161,16 +6118,19 @@
       <c r="D216">
         <v>216</v>
       </c>
-      <c r="G216">
+      <c r="E216" t="s">
+        <v>331</v>
+      </c>
+      <c r="F216">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C217" s="2">
         <v>215</v>
@@ -5178,16 +6138,19 @@
       <c r="D217">
         <v>217</v>
       </c>
-      <c r="G217">
+      <c r="E217" t="s">
+        <v>334</v>
+      </c>
+      <c r="F217">
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C218" s="2">
         <v>216</v>
@@ -5195,16 +6158,19 @@
       <c r="D218">
         <v>218</v>
       </c>
-      <c r="G218">
+      <c r="E218" t="s">
+        <v>403</v>
+      </c>
+      <c r="F218">
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C219" s="2">
         <v>217</v>
@@ -5212,16 +6178,19 @@
       <c r="D219">
         <v>219</v>
       </c>
-      <c r="G219">
+      <c r="E219" t="s">
+        <v>404</v>
+      </c>
+      <c r="F219">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C220" s="2">
         <v>218</v>
@@ -5229,16 +6198,19 @@
       <c r="D220">
         <v>220</v>
       </c>
-      <c r="G220">
+      <c r="E220" t="s">
+        <v>337</v>
+      </c>
+      <c r="F220">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C221" s="2">
         <v>219</v>
@@ -5246,16 +6218,19 @@
       <c r="D221">
         <v>221</v>
       </c>
-      <c r="G221">
+      <c r="E221" t="s">
+        <v>350</v>
+      </c>
+      <c r="F221">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C222" s="2">
         <v>220</v>
@@ -5263,16 +6238,19 @@
       <c r="D222">
         <v>222</v>
       </c>
-      <c r="G222">
+      <c r="E222" t="s">
+        <v>378</v>
+      </c>
+      <c r="F222">
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C223" s="2">
         <v>221</v>
@@ -5280,16 +6258,19 @@
       <c r="D223">
         <v>223</v>
       </c>
-      <c r="G223">
+      <c r="E223" t="s">
+        <v>420</v>
+      </c>
+      <c r="F223">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C224" s="2">
         <v>222</v>
@@ -5297,16 +6278,19 @@
       <c r="D224">
         <v>224</v>
       </c>
-      <c r="G224">
+      <c r="E224" t="s">
+        <v>424</v>
+      </c>
+      <c r="F224">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C225" s="2">
         <v>223</v>
@@ -5314,16 +6298,19 @@
       <c r="D225">
         <v>225</v>
       </c>
-      <c r="G225">
+      <c r="E225" t="s">
+        <v>333</v>
+      </c>
+      <c r="F225">
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C226" s="2">
         <v>224</v>
@@ -5331,16 +6318,19 @@
       <c r="D226">
         <v>226</v>
       </c>
-      <c r="G226">
+      <c r="E226" t="s">
+        <v>319</v>
+      </c>
+      <c r="F226">
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C227" s="2">
         <v>225</v>
@@ -5348,16 +6338,19 @@
       <c r="D227">
         <v>227</v>
       </c>
-      <c r="G227">
+      <c r="E227" t="s">
+        <v>405</v>
+      </c>
+      <c r="F227">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C228" s="2">
         <v>226</v>
@@ -5365,16 +6358,19 @@
       <c r="D228">
         <v>228</v>
       </c>
-      <c r="G228">
+      <c r="E228" t="s">
+        <v>337</v>
+      </c>
+      <c r="F228">
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C229" s="2">
         <v>227</v>
@@ -5382,16 +6378,19 @@
       <c r="D229">
         <v>229</v>
       </c>
-      <c r="G229">
+      <c r="E229" t="s">
+        <v>406</v>
+      </c>
+      <c r="F229">
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C230" s="2">
         <v>228</v>
@@ -5399,16 +6398,19 @@
       <c r="D230">
         <v>230</v>
       </c>
-      <c r="G230">
+      <c r="E230" t="s">
+        <v>337</v>
+      </c>
+      <c r="F230">
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C231" s="2">
         <v>229</v>
@@ -5416,16 +6418,19 @@
       <c r="D231">
         <v>231</v>
       </c>
-      <c r="G231">
+      <c r="E231" t="s">
+        <v>382</v>
+      </c>
+      <c r="F231">
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C232" s="2">
         <v>230</v>
@@ -5433,16 +6438,19 @@
       <c r="D232">
         <v>232</v>
       </c>
-      <c r="G232">
+      <c r="E232" t="s">
+        <v>329</v>
+      </c>
+      <c r="F232">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C233" s="2">
         <v>231</v>
@@ -5450,16 +6458,19 @@
       <c r="D233">
         <v>233</v>
       </c>
-      <c r="G233">
+      <c r="E233" t="s">
+        <v>405</v>
+      </c>
+      <c r="F233">
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C234" s="2">
         <v>232</v>
@@ -5467,16 +6478,19 @@
       <c r="D234">
         <v>234</v>
       </c>
-      <c r="G234">
+      <c r="E234" t="s">
+        <v>303</v>
+      </c>
+      <c r="F234">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C235" s="2">
         <v>233</v>
@@ -5484,16 +6498,19 @@
       <c r="D235">
         <v>235</v>
       </c>
-      <c r="G235">
+      <c r="E235" t="s">
+        <v>328</v>
+      </c>
+      <c r="F235">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C236" s="2">
         <v>234</v>
@@ -5501,16 +6518,19 @@
       <c r="D236">
         <v>236</v>
       </c>
-      <c r="G236">
+      <c r="E236" t="s">
+        <v>333</v>
+      </c>
+      <c r="F236">
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C237" s="2">
         <v>235</v>
@@ -5518,16 +6538,19 @@
       <c r="D237">
         <v>237</v>
       </c>
-      <c r="G237">
+      <c r="E237" t="s">
+        <v>380</v>
+      </c>
+      <c r="F237">
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C238" s="2">
         <v>236</v>
@@ -5535,16 +6558,19 @@
       <c r="D238">
         <v>238</v>
       </c>
-      <c r="G238">
+      <c r="E238" t="s">
+        <v>327</v>
+      </c>
+      <c r="F238">
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C239" s="2">
         <v>237</v>
@@ -5552,50 +6578,54 @@
       <c r="D239">
         <v>239</v>
       </c>
-      <c r="G239">
+      <c r="E239" t="s">
+        <v>383</v>
+      </c>
+      <c r="F239">
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2">
         <v>238</v>
       </c>
-      <c r="D240">
-        <v>240</v>
-      </c>
-      <c r="G240">
+      <c r="E240" t="s">
+        <v>329</v>
+      </c>
+      <c r="F240">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>198</v>
-      </c>
-      <c r="C241" s="2">
-        <v>239</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C241" s="2"/>
       <c r="D241">
         <v>241</v>
       </c>
-      <c r="G241">
+      <c r="E241" s="16">
+        <v>0</v>
+      </c>
+      <c r="F241" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C242" s="2">
         <v>240</v>
@@ -5603,16 +6633,19 @@
       <c r="D242">
         <v>242</v>
       </c>
-      <c r="G242" s="11">
+      <c r="E242" t="s">
+        <v>413</v>
+      </c>
+      <c r="F242">
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C243" s="2">
         <v>241</v>
@@ -5620,16 +6653,19 @@
       <c r="D243">
         <v>243</v>
       </c>
-      <c r="G243">
+      <c r="E243" t="s">
+        <v>406</v>
+      </c>
+      <c r="F243">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C244" s="2">
         <v>242</v>
@@ -5637,16 +6673,19 @@
       <c r="D244">
         <v>244</v>
       </c>
-      <c r="G244">
+      <c r="E244" t="s">
+        <v>423</v>
+      </c>
+      <c r="F244">
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C245" s="2">
         <v>243</v>
@@ -5654,16 +6693,19 @@
       <c r="D245">
         <v>245</v>
       </c>
-      <c r="G245">
+      <c r="E245" t="s">
+        <v>331</v>
+      </c>
+      <c r="F245">
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C246" s="2">
         <v>244</v>
@@ -5671,16 +6713,19 @@
       <c r="D246">
         <v>246</v>
       </c>
-      <c r="G246">
+      <c r="E246" t="s">
+        <v>410</v>
+      </c>
+      <c r="F246">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C247" s="2">
         <v>245</v>
@@ -5688,16 +6733,19 @@
       <c r="D247">
         <v>247</v>
       </c>
-      <c r="G247">
+      <c r="E247" t="s">
+        <v>406</v>
+      </c>
+      <c r="F247">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C248" s="2">
         <v>246</v>
@@ -5705,16 +6753,19 @@
       <c r="D248">
         <v>248</v>
       </c>
-      <c r="G248">
+      <c r="E248" t="s">
+        <v>308</v>
+      </c>
+      <c r="F248">
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C249" s="2">
         <v>247</v>
@@ -5722,16 +6773,19 @@
       <c r="D249">
         <v>249</v>
       </c>
-      <c r="G249">
+      <c r="E249" t="s">
+        <v>380</v>
+      </c>
+      <c r="F249">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C250" s="2">
         <v>248</v>
@@ -5739,16 +6793,19 @@
       <c r="D250">
         <v>250</v>
       </c>
-      <c r="G250">
+      <c r="E250" t="s">
+        <v>301</v>
+      </c>
+      <c r="F250">
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C251" s="2">
         <v>249</v>
@@ -5756,16 +6813,19 @@
       <c r="D251">
         <v>251</v>
       </c>
-      <c r="G251">
+      <c r="E251" t="s">
+        <v>351</v>
+      </c>
+      <c r="F251">
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C252" s="2">
         <v>250</v>
@@ -5773,16 +6833,19 @@
       <c r="D252">
         <v>252</v>
       </c>
-      <c r="G252">
+      <c r="E252" t="s">
+        <v>422</v>
+      </c>
+      <c r="F252">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C253" s="2">
         <v>251</v>
@@ -5790,16 +6853,19 @@
       <c r="D253">
         <v>253</v>
       </c>
-      <c r="G253">
+      <c r="E253" t="s">
+        <v>421</v>
+      </c>
+      <c r="F253" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C254" s="2">
         <v>252</v>
@@ -5807,16 +6873,19 @@
       <c r="D254">
         <v>254</v>
       </c>
-      <c r="G254" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E254" t="s">
+        <v>306</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C255" s="2">
         <v>253</v>
@@ -5824,16 +6893,19 @@
       <c r="D255">
         <v>255</v>
       </c>
-      <c r="G255">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>378</v>
+      </c>
+      <c r="F255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C256" s="2">
         <v>254</v>
@@ -5841,16 +6913,19 @@
       <c r="D256">
         <v>256</v>
       </c>
-      <c r="G256">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>420</v>
+      </c>
+      <c r="F256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C257" s="2">
         <v>255</v>
@@ -5858,16 +6933,19 @@
       <c r="D257">
         <v>257</v>
       </c>
-      <c r="G257">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>380</v>
+      </c>
+      <c r="F257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C258" s="2">
         <v>256</v>
@@ -5875,16 +6953,19 @@
       <c r="D258">
         <v>258</v>
       </c>
-      <c r="G258">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>407</v>
+      </c>
+      <c r="F258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C259" s="2">
         <v>257</v>
@@ -5892,16 +6973,19 @@
       <c r="D259">
         <v>259</v>
       </c>
-      <c r="G259">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>419</v>
+      </c>
+      <c r="F259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C260" s="2">
         <v>258</v>
@@ -5909,16 +6993,19 @@
       <c r="D260">
         <v>260</v>
       </c>
-      <c r="G260">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E260" t="s">
+        <v>407</v>
+      </c>
+      <c r="F260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C261" s="2">
         <v>259</v>
@@ -5926,50 +7013,54 @@
       <c r="D261">
         <v>261</v>
       </c>
-      <c r="G261">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
+        <v>408</v>
+      </c>
+      <c r="F261">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C262" s="2">
         <v>260</v>
       </c>
-      <c r="D262">
-        <v>262</v>
-      </c>
-      <c r="G262">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E262" s="16">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
-      </c>
-      <c r="C263" s="2">
-        <v>261</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C263" s="2"/>
       <c r="D263">
         <v>263</v>
       </c>
-      <c r="G263">
+      <c r="E263" t="s">
+        <v>409</v>
+      </c>
+      <c r="F263">
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C264" s="2">
         <v>262</v>
@@ -5977,16 +7068,19 @@
       <c r="D264">
         <v>264</v>
       </c>
-      <c r="G264">
+      <c r="E264" t="s">
+        <v>405</v>
+      </c>
+      <c r="F264">
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C265" s="2">
         <v>263</v>
@@ -5994,16 +7088,19 @@
       <c r="D265">
         <v>265</v>
       </c>
-      <c r="G265">
+      <c r="E265" t="s">
+        <v>319</v>
+      </c>
+      <c r="F265">
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C266" s="2">
         <v>264</v>
@@ -6011,16 +7108,19 @@
       <c r="D266">
         <v>266</v>
       </c>
-      <c r="G266">
+      <c r="E266" t="s">
+        <v>329</v>
+      </c>
+      <c r="F266">
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C267" s="2">
         <v>265</v>
@@ -6028,16 +7128,19 @@
       <c r="D267">
         <v>267</v>
       </c>
-      <c r="G267">
+      <c r="E267" t="s">
+        <v>380</v>
+      </c>
+      <c r="F267">
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C268" s="2">
         <v>266</v>
@@ -6045,16 +7148,19 @@
       <c r="D268">
         <v>268</v>
       </c>
-      <c r="G268">
+      <c r="E268" t="s">
+        <v>416</v>
+      </c>
+      <c r="F268">
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C269" s="2">
         <v>267</v>
@@ -6062,16 +7168,19 @@
       <c r="D269">
         <v>269</v>
       </c>
-      <c r="G269">
+      <c r="E269" t="s">
+        <v>417</v>
+      </c>
+      <c r="F269">
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C270" s="2">
         <v>268</v>
@@ -6079,16 +7188,19 @@
       <c r="D270">
         <v>270</v>
       </c>
-      <c r="G270">
+      <c r="E270" t="s">
+        <v>418</v>
+      </c>
+      <c r="F270">
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C271" s="2">
         <v>269</v>
@@ -6096,16 +7208,19 @@
       <c r="D271">
         <v>271</v>
       </c>
-      <c r="G271">
+      <c r="E271" t="s">
+        <v>382</v>
+      </c>
+      <c r="F271">
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C272" s="2">
         <v>270</v>
@@ -6113,16 +7228,19 @@
       <c r="D272">
         <v>272</v>
       </c>
-      <c r="G272">
+      <c r="E272" t="s">
+        <v>337</v>
+      </c>
+      <c r="F272">
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C273" s="2">
         <v>271</v>
@@ -6130,50 +7248,54 @@
       <c r="D273">
         <v>273</v>
       </c>
-      <c r="G273">
+      <c r="E273" t="s">
+        <v>414</v>
+      </c>
+      <c r="F273">
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C274" s="2">
         <v>272</v>
       </c>
-      <c r="D274">
-        <v>274</v>
-      </c>
-      <c r="G274">
+      <c r="E274" s="16">
+        <v>0</v>
+      </c>
+      <c r="F274" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>220</v>
-      </c>
-      <c r="C275" s="2">
-        <v>273</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C275" s="2"/>
       <c r="D275">
         <v>275</v>
       </c>
-      <c r="G275" s="13">
+      <c r="E275" t="s">
+        <v>414</v>
+      </c>
+      <c r="F275">
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C276" s="2">
         <v>274</v>
@@ -6181,16 +7303,19 @@
       <c r="D276">
         <v>276</v>
       </c>
-      <c r="G276">
+      <c r="E276" t="s">
+        <v>376</v>
+      </c>
+      <c r="F276">
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C277" s="2">
         <v>275</v>
@@ -6198,16 +7323,19 @@
       <c r="D277">
         <v>277</v>
       </c>
-      <c r="G277">
+      <c r="E277" t="s">
+        <v>415</v>
+      </c>
+      <c r="F277">
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C278" s="2">
         <v>276</v>
@@ -6215,16 +7343,19 @@
       <c r="D278">
         <v>278</v>
       </c>
-      <c r="G278">
+      <c r="E278" t="s">
+        <v>379</v>
+      </c>
+      <c r="F278">
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C279" s="2">
         <v>277</v>
@@ -6232,16 +7363,19 @@
       <c r="D279">
         <v>279</v>
       </c>
-      <c r="G279">
+      <c r="E279" t="s">
+        <v>334</v>
+      </c>
+      <c r="F279">
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C280" s="2">
         <v>278</v>
@@ -6249,16 +7383,19 @@
       <c r="D280">
         <v>280</v>
       </c>
-      <c r="G280">
+      <c r="E280" t="s">
+        <v>350</v>
+      </c>
+      <c r="F280">
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C281" s="2">
         <v>279</v>
@@ -6266,16 +7403,19 @@
       <c r="D281">
         <v>281</v>
       </c>
-      <c r="G281">
+      <c r="E281" t="s">
+        <v>334</v>
+      </c>
+      <c r="F281">
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C282" s="2">
         <v>280</v>
@@ -6283,16 +7423,19 @@
       <c r="D282">
         <v>282</v>
       </c>
-      <c r="G282">
+      <c r="E282" t="s">
+        <v>319</v>
+      </c>
+      <c r="F282">
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C283" s="2">
         <v>281</v>
@@ -6300,16 +7443,19 @@
       <c r="D283">
         <v>283</v>
       </c>
-      <c r="G283">
+      <c r="E283" t="s">
+        <v>409</v>
+      </c>
+      <c r="F283">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C284" s="2">
         <v>282</v>
@@ -6317,16 +7463,19 @@
       <c r="D284">
         <v>284</v>
       </c>
-      <c r="G284">
+      <c r="E284" t="s">
+        <v>410</v>
+      </c>
+      <c r="F284">
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C285" s="2">
         <v>283</v>
@@ -6334,16 +7483,19 @@
       <c r="D285">
         <v>285</v>
       </c>
-      <c r="G285">
+      <c r="E285" t="s">
+        <v>382</v>
+      </c>
+      <c r="F285">
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C286" s="2">
         <v>284</v>
@@ -6351,16 +7503,19 @@
       <c r="D286">
         <v>286</v>
       </c>
-      <c r="G286">
+      <c r="E286" t="s">
+        <v>303</v>
+      </c>
+      <c r="F286">
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C287" s="2">
         <v>285</v>
@@ -6368,16 +7523,19 @@
       <c r="D287">
         <v>287</v>
       </c>
-      <c r="G287">
+      <c r="E287" t="s">
+        <v>301</v>
+      </c>
+      <c r="F287">
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C288" s="2">
         <v>286</v>
@@ -6385,16 +7543,19 @@
       <c r="D288">
         <v>288</v>
       </c>
-      <c r="G288">
+      <c r="E288" t="s">
+        <v>382</v>
+      </c>
+      <c r="F288">
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C289" s="2">
         <v>287</v>
@@ -6402,16 +7563,19 @@
       <c r="D289">
         <v>289</v>
       </c>
-      <c r="G289">
+      <c r="E289" t="s">
+        <v>318</v>
+      </c>
+      <c r="F289">
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C290" s="2">
         <v>288</v>
@@ -6419,16 +7583,19 @@
       <c r="D290">
         <v>290</v>
       </c>
-      <c r="G290">
+      <c r="E290" t="s">
+        <v>410</v>
+      </c>
+      <c r="F290">
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C291" s="2">
         <v>289</v>
@@ -6436,16 +7603,19 @@
       <c r="D291">
         <v>291</v>
       </c>
-      <c r="G291">
+      <c r="E291" t="s">
+        <v>378</v>
+      </c>
+      <c r="F291">
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C292" s="2">
         <v>290</v>
@@ -6453,16 +7623,19 @@
       <c r="D292">
         <v>292</v>
       </c>
-      <c r="G292">
+      <c r="E292" t="s">
+        <v>379</v>
+      </c>
+      <c r="F292">
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C293" s="2">
         <v>291</v>
@@ -6470,16 +7643,19 @@
       <c r="D293">
         <v>293</v>
       </c>
-      <c r="G293">
+      <c r="E293" t="s">
+        <v>380</v>
+      </c>
+      <c r="F293">
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C294" s="2">
         <v>292</v>
@@ -6487,16 +7663,19 @@
       <c r="D294">
         <v>294</v>
       </c>
-      <c r="G294">
+      <c r="E294" t="s">
+        <v>412</v>
+      </c>
+      <c r="F294">
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C295" s="2">
         <v>293</v>
@@ -6504,16 +7683,19 @@
       <c r="D295">
         <v>295</v>
       </c>
-      <c r="G295">
+      <c r="E295" t="s">
+        <v>411</v>
+      </c>
+      <c r="F295">
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C296" s="2">
         <v>294</v>
@@ -6521,16 +7703,19 @@
       <c r="D296">
         <v>296</v>
       </c>
-      <c r="G296">
+      <c r="E296" t="s">
+        <v>377</v>
+      </c>
+      <c r="F296">
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C297" s="2">
         <v>295</v>
@@ -6538,16 +7723,19 @@
       <c r="D297">
         <v>297</v>
       </c>
-      <c r="G297">
+      <c r="E297" t="s">
+        <v>410</v>
+      </c>
+      <c r="F297">
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C298" s="2">
         <v>296</v>
@@ -6555,16 +7743,19 @@
       <c r="D298">
         <v>298</v>
       </c>
-      <c r="G298">
+      <c r="E298" t="s">
+        <v>333</v>
+      </c>
+      <c r="F298">
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C299" s="2">
         <v>297</v>
@@ -6572,50 +7763,54 @@
       <c r="D299">
         <v>299</v>
       </c>
-      <c r="G299">
+      <c r="E299" t="s">
+        <v>303</v>
+      </c>
+      <c r="F299">
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C300" s="2">
         <v>298</v>
       </c>
-      <c r="D300">
-        <v>300</v>
-      </c>
-      <c r="G300">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300">
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>238</v>
-      </c>
-      <c r="C301" s="2">
-        <v>299</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C301" s="2"/>
       <c r="D301">
         <v>301</v>
       </c>
-      <c r="G301">
+      <c r="E301" t="s">
+        <v>337</v>
+      </c>
+      <c r="F301" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C302" s="2">
         <v>300</v>
@@ -6623,16 +7818,19 @@
       <c r="D302">
         <v>302</v>
       </c>
-      <c r="G302" s="14">
+      <c r="E302" t="s">
+        <v>337</v>
+      </c>
+      <c r="F302">
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C303" s="2">
         <v>301</v>
@@ -6640,16 +7838,19 @@
       <c r="D303">
         <v>303</v>
       </c>
-      <c r="G303">
+      <c r="E303" t="s">
+        <v>383</v>
+      </c>
+      <c r="F303">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C304" s="2">
         <v>302</v>
@@ -6657,16 +7858,19 @@
       <c r="D304">
         <v>304</v>
       </c>
-      <c r="G304">
+      <c r="E304" t="s">
+        <v>382</v>
+      </c>
+      <c r="F304">
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C305" s="2">
         <v>303</v>
@@ -6674,16 +7878,19 @@
       <c r="D305">
         <v>305</v>
       </c>
-      <c r="G305">
+      <c r="E305" t="s">
+        <v>381</v>
+      </c>
+      <c r="F305">
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C306" s="2">
         <v>304</v>
@@ -6691,16 +7898,19 @@
       <c r="D306">
         <v>306</v>
       </c>
-      <c r="G306">
+      <c r="E306" t="s">
+        <v>380</v>
+      </c>
+      <c r="F306">
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C307" s="2">
         <v>305</v>
@@ -6708,16 +7918,19 @@
       <c r="D307">
         <v>307</v>
       </c>
-      <c r="G307">
+      <c r="E307" t="s">
+        <v>379</v>
+      </c>
+      <c r="F307">
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C308" s="2">
         <v>306</v>
@@ -6725,16 +7938,19 @@
       <c r="D308">
         <v>308</v>
       </c>
-      <c r="G308">
+      <c r="E308" t="s">
+        <v>379</v>
+      </c>
+      <c r="F308">
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C309" s="2">
         <v>307</v>
@@ -6742,16 +7958,19 @@
       <c r="D309">
         <v>309</v>
       </c>
-      <c r="G309">
+      <c r="E309" t="s">
+        <v>378</v>
+      </c>
+      <c r="F309">
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C310" s="2">
         <v>308</v>
@@ -6759,16 +7978,19 @@
       <c r="D310">
         <v>310</v>
       </c>
-      <c r="G310">
+      <c r="E310" t="s">
+        <v>351</v>
+      </c>
+      <c r="F310">
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C311" s="2">
         <v>309</v>
@@ -6776,16 +7998,19 @@
       <c r="D311">
         <v>311</v>
       </c>
-      <c r="G311">
+      <c r="E311" t="s">
+        <v>303</v>
+      </c>
+      <c r="F311">
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C312" s="2">
         <v>310</v>
@@ -6793,16 +8018,19 @@
       <c r="D312">
         <v>312</v>
       </c>
-      <c r="G312">
+      <c r="E312" t="s">
+        <v>377</v>
+      </c>
+      <c r="F312">
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C313" s="2">
         <v>311</v>
@@ -6810,16 +8038,19 @@
       <c r="D313">
         <v>313</v>
       </c>
-      <c r="G313">
+      <c r="E313" t="s">
+        <v>376</v>
+      </c>
+      <c r="F313">
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C314" s="2">
         <v>312</v>
@@ -6827,16 +8058,19 @@
       <c r="D314">
         <v>314</v>
       </c>
-      <c r="G314">
+      <c r="E314" t="s">
+        <v>328</v>
+      </c>
+      <c r="F314">
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C315" s="2">
         <v>313</v>
@@ -6844,16 +8078,19 @@
       <c r="D315">
         <v>315</v>
       </c>
-      <c r="G315">
+      <c r="E315" t="s">
+        <v>337</v>
+      </c>
+      <c r="F315">
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C316" s="2">
         <v>314</v>
@@ -6861,16 +8098,19 @@
       <c r="D316">
         <v>316</v>
       </c>
-      <c r="G316">
+      <c r="E316" t="s">
+        <v>375</v>
+      </c>
+      <c r="F316">
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C317" s="2">
         <v>315</v>
@@ -6878,16 +8118,19 @@
       <c r="D317">
         <v>317</v>
       </c>
-      <c r="G317">
+      <c r="E317" s="16">
+        <v>0</v>
+      </c>
+      <c r="F317">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C318" s="2">
         <v>316</v>
@@ -6895,16 +8138,19 @@
       <c r="D318">
         <v>318</v>
       </c>
-      <c r="G318">
+      <c r="E318" t="s">
+        <v>337</v>
+      </c>
+      <c r="F318">
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C319" s="2">
         <v>317</v>
@@ -6912,50 +8158,54 @@
       <c r="D319">
         <v>319</v>
       </c>
-      <c r="G319">
+      <c r="E319" t="s">
+        <v>336</v>
+      </c>
+      <c r="F319">
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C320" s="2">
         <v>318</v>
       </c>
-      <c r="D320">
-        <v>320</v>
-      </c>
-      <c r="G320">
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>249</v>
-      </c>
-      <c r="C321" s="2">
-        <v>319</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C321" s="2"/>
       <c r="D321">
         <v>321</v>
       </c>
-      <c r="G321" s="2">
+      <c r="E321" t="s">
+        <v>329</v>
+      </c>
+      <c r="F321">
         <v>14</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C322" s="2">
         <v>320</v>
@@ -6963,16 +8213,19 @@
       <c r="D322">
         <v>322</v>
       </c>
-      <c r="G322">
+      <c r="E322" t="s">
+        <v>280</v>
+      </c>
+      <c r="F322">
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C323" s="2">
         <v>321</v>
@@ -6980,16 +8233,19 @@
       <c r="D323">
         <v>323</v>
       </c>
-      <c r="G323">
+      <c r="E323" t="s">
+        <v>335</v>
+      </c>
+      <c r="F323">
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C324" s="2">
         <v>322</v>
@@ -6997,16 +8253,19 @@
       <c r="D324">
         <v>324</v>
       </c>
-      <c r="G324">
+      <c r="E324" t="s">
+        <v>303</v>
+      </c>
+      <c r="F324">
         <v>14</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C325" s="2">
         <v>323</v>
@@ -7014,16 +8273,19 @@
       <c r="D325">
         <v>325</v>
       </c>
-      <c r="G325">
+      <c r="E325" t="s">
+        <v>311</v>
+      </c>
+      <c r="F325">
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C326" s="2">
         <v>324</v>
@@ -7031,16 +8293,19 @@
       <c r="D326">
         <v>326</v>
       </c>
-      <c r="G326">
+      <c r="E326" t="s">
+        <v>310</v>
+      </c>
+      <c r="F326">
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C327" s="2">
         <v>325</v>
@@ -7048,16 +8313,19 @@
       <c r="D327">
         <v>327</v>
       </c>
-      <c r="G327">
+      <c r="E327" t="s">
+        <v>309</v>
+      </c>
+      <c r="F327">
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C328" s="2">
         <v>326</v>
@@ -7065,16 +8333,19 @@
       <c r="D328">
         <v>328</v>
       </c>
-      <c r="G328">
+      <c r="E328" t="s">
+        <v>308</v>
+      </c>
+      <c r="F328">
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C329" s="2">
         <v>327</v>
@@ -7082,16 +8353,19 @@
       <c r="D329">
         <v>329</v>
       </c>
-      <c r="G329">
+      <c r="E329" t="s">
+        <v>307</v>
+      </c>
+      <c r="F329">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C330" s="2">
         <v>328</v>
@@ -7099,16 +8373,19 @@
       <c r="D330">
         <v>330</v>
       </c>
-      <c r="G330">
+      <c r="E330" t="s">
+        <v>306</v>
+      </c>
+      <c r="F330">
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C331" s="2">
         <v>329</v>
@@ -7116,41 +8393,27 @@
       <c r="D331">
         <v>331</v>
       </c>
-      <c r="G331">
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>253</v>
-      </c>
-      <c r="C332" s="2">
+        <v>144</v>
+      </c>
+      <c r="C332">
         <v>330</v>
       </c>
-      <c r="D332">
-        <v>332</v>
-      </c>
-      <c r="G332">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>332</v>
-      </c>
-      <c r="B333" t="s">
-        <v>147</v>
-      </c>
-      <c r="C333" s="2">
-        <v>331</v>
-      </c>
-      <c r="D333">
-        <v>333</v>
-      </c>
-      <c r="G333">
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
         <v>14</v>
       </c>
     </row>
